--- a/journal_paper/journalextras_full_comparison.xlsx
+++ b/journal_paper/journalextras_full_comparison.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation (amenity timespent) (avg vs all)" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Correlation (amenity area) (avg vs all)" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Correlation (timespent vs area)" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Model Errors Averages" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Total Models Error Averages" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="38">
   <si>
     <t xml:space="preserve">no clusters</t>
   </si>
@@ -104,6 +105,39 @@
   </si>
   <si>
     <t xml:space="preserve">test error avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training error average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test error average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mlp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended xgb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended svm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extended mlp</t>
   </si>
 </sst>
 </file>
@@ -219,7 +253,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1398,4 +1432,322 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.09183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>17.89835</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>18.0067093372345</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>18.8516875</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>18.5238926410675</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>19.120125</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>19.7764406204224</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>19.5514375</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>20.2179288864136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>17.457325</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.0819772481918</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>19.8407375</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>19.4602680206299</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>20.149775</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>23.6181797981262</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>54.6178875</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>203.218175411225</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>18.4193625</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>18.2563467621803</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>19.14078125</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>18.8316343426704</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>19.22329375</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>19.0385833382607</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>20.13655</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>19.4597967863083</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>17.6253</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>17.0168153643608</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>18.7676625</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>17.8053233623505</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>22.52125</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>23.4918365478516</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>22.5281625</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>19.3557153940201</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>